--- a/database/_legacy-data/matchweeks.xlsx
+++ b/database/_legacy-data/matchweeks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27105" windowHeight="14550" xr2:uid="{FD72F519-3CD7-446C-A361-3114E393A152}"/>
+    <workbookView xWindow="1215" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{FD72F519-3CD7-446C-A361-3114E393A152}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
   <si>
     <t>Relegation</t>
   </si>
@@ -64,14 +64,29 @@
   <si>
     <t>Finale</t>
   </si>
+  <si>
+    <t>Achtelfinale</t>
+  </si>
+  <si>
+    <t>Viertelfinale</t>
+  </si>
+  <si>
+    <t>Halbfinale</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Sechzehntelfinale</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -134,9 +149,9 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -453,10 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2147448-C3CF-4B75-9ECB-A9045B5BF4C1}">
-  <dimension ref="A1:I378"/>
+  <dimension ref="A1:I414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G378"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F415" sqref="F415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,11 +533,11 @@
       </c>
       <c r="H2" s="4">
         <f ca="1">NOW()</f>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I2" s="4">
         <f ca="1">NOW()</f>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -545,11 +561,11 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:I66" ca="1" si="0">NOW()</f>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -573,11 +589,11 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -601,11 +617,11 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -629,11 +645,11 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -657,11 +673,11 @@
       </c>
       <c r="H7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -685,11 +701,11 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -713,11 +729,11 @@
       </c>
       <c r="H9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -741,11 +757,11 @@
       </c>
       <c r="H10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -769,11 +785,11 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -797,11 +813,11 @@
       </c>
       <c r="H12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -825,11 +841,11 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -853,11 +869,11 @@
       </c>
       <c r="H14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -881,11 +897,11 @@
       </c>
       <c r="H15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -909,11 +925,11 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -937,11 +953,11 @@
       </c>
       <c r="H17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -965,11 +981,11 @@
       </c>
       <c r="H18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -993,11 +1009,11 @@
       </c>
       <c r="H19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1021,11 +1037,11 @@
       </c>
       <c r="H20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1049,11 +1065,11 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1077,11 +1093,11 @@
       </c>
       <c r="H22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1105,11 +1121,11 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1133,11 +1149,11 @@
       </c>
       <c r="H24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1161,11 +1177,11 @@
       </c>
       <c r="H25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1189,11 +1205,11 @@
       </c>
       <c r="H26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1217,11 +1233,11 @@
       </c>
       <c r="H27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1245,11 +1261,11 @@
       </c>
       <c r="H28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1273,11 +1289,11 @@
       </c>
       <c r="H29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1304,11 +1320,11 @@
       </c>
       <c r="H30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1333,11 +1349,11 @@
       </c>
       <c r="H31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1361,11 +1377,11 @@
       </c>
       <c r="H32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1389,11 +1405,11 @@
       </c>
       <c r="H33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1417,11 +1433,11 @@
       </c>
       <c r="H34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1445,11 +1461,11 @@
       </c>
       <c r="H35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1473,11 +1489,11 @@
       </c>
       <c r="H36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1501,11 +1517,11 @@
       </c>
       <c r="H37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1529,11 +1545,11 @@
       </c>
       <c r="H38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1557,11 +1573,11 @@
       </c>
       <c r="H39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1585,11 +1601,11 @@
       </c>
       <c r="H40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1613,11 +1629,11 @@
       </c>
       <c r="H41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1641,11 +1657,11 @@
       </c>
       <c r="H42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1669,11 +1685,11 @@
       </c>
       <c r="H43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1697,11 +1713,11 @@
       </c>
       <c r="H44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1725,11 +1741,11 @@
       </c>
       <c r="H45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1753,11 +1769,11 @@
       </c>
       <c r="H46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1781,11 +1797,11 @@
       </c>
       <c r="H47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1809,11 +1825,11 @@
       </c>
       <c r="H48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1837,11 +1853,11 @@
       </c>
       <c r="H49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1865,11 +1881,11 @@
       </c>
       <c r="H50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -1893,11 +1909,11 @@
       </c>
       <c r="H51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -1921,11 +1937,11 @@
       </c>
       <c r="H52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -1949,11 +1965,11 @@
       </c>
       <c r="H53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -1977,11 +1993,11 @@
       </c>
       <c r="H54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2005,11 +2021,11 @@
       </c>
       <c r="H55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2033,11 +2049,11 @@
       </c>
       <c r="H56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2061,11 +2077,11 @@
       </c>
       <c r="H57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2089,11 +2105,11 @@
       </c>
       <c r="H58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2117,11 +2133,11 @@
       </c>
       <c r="H59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2145,11 +2161,11 @@
       </c>
       <c r="H60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2173,11 +2189,11 @@
       </c>
       <c r="H61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2201,11 +2217,11 @@
       </c>
       <c r="H62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2229,11 +2245,11 @@
       </c>
       <c r="H63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2257,11 +2273,11 @@
       </c>
       <c r="H64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2285,11 +2301,11 @@
       </c>
       <c r="H65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2313,11 +2329,11 @@
       </c>
       <c r="H66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2341,11 +2357,11 @@
       </c>
       <c r="H67" s="4">
         <f t="shared" ref="H67:I130" ca="1" si="1">NOW()</f>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I67" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2369,11 +2385,11 @@
       </c>
       <c r="H68" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I68" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2397,11 +2413,11 @@
       </c>
       <c r="H69" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I69" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2425,11 +2441,11 @@
       </c>
       <c r="H70" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I70" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2453,11 +2469,11 @@
       </c>
       <c r="H71" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I71" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2481,11 +2497,11 @@
       </c>
       <c r="H72" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I72" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2509,11 +2525,11 @@
       </c>
       <c r="H73" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I73" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2537,11 +2553,11 @@
       </c>
       <c r="H74" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I74" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2565,11 +2581,11 @@
       </c>
       <c r="H75" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I75" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2593,11 +2609,11 @@
       </c>
       <c r="H76" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I76" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2621,11 +2637,11 @@
       </c>
       <c r="H77" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I77" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2649,11 +2665,11 @@
       </c>
       <c r="H78" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I78" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2677,11 +2693,11 @@
       </c>
       <c r="H79" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I79" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2705,11 +2721,11 @@
       </c>
       <c r="H80" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I80" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2733,11 +2749,11 @@
       </c>
       <c r="H81" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I81" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2761,11 +2777,11 @@
       </c>
       <c r="H82" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I82" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2789,11 +2805,11 @@
       </c>
       <c r="H83" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I83" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2817,11 +2833,11 @@
       </c>
       <c r="H84" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I84" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2845,11 +2861,11 @@
       </c>
       <c r="H85" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I85" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2873,11 +2889,11 @@
       </c>
       <c r="H86" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I86" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -2901,11 +2917,11 @@
       </c>
       <c r="H87" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I87" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -2929,11 +2945,11 @@
       </c>
       <c r="H88" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I88" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -2957,11 +2973,11 @@
       </c>
       <c r="H89" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I89" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -2985,11 +3001,11 @@
       </c>
       <c r="H90" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I90" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3013,11 +3029,11 @@
       </c>
       <c r="H91" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I91" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3041,11 +3057,11 @@
       </c>
       <c r="H92" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I92" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3069,11 +3085,11 @@
       </c>
       <c r="H93" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I93" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3097,11 +3113,11 @@
       </c>
       <c r="H94" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I94" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3125,11 +3141,11 @@
       </c>
       <c r="H95" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I95" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3153,11 +3169,11 @@
       </c>
       <c r="H96" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I96" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3181,11 +3197,11 @@
       </c>
       <c r="H97" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I97" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3209,11 +3225,11 @@
       </c>
       <c r="H98" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I98" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3237,11 +3253,11 @@
       </c>
       <c r="H99" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I99" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3265,11 +3281,11 @@
       </c>
       <c r="H100" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I100" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3293,11 +3309,11 @@
       </c>
       <c r="H101" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I101" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3321,11 +3337,11 @@
       </c>
       <c r="H102" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I102" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3349,11 +3365,11 @@
       </c>
       <c r="H103" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I103" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3377,11 +3393,11 @@
       </c>
       <c r="H104" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I104" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3405,11 +3421,11 @@
       </c>
       <c r="H105" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I105" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3433,11 +3449,11 @@
       </c>
       <c r="H106" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I106" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3461,11 +3477,11 @@
       </c>
       <c r="H107" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I107" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3489,11 +3505,11 @@
       </c>
       <c r="H108" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I108" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3517,11 +3533,11 @@
       </c>
       <c r="H109" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I109" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3546,11 +3562,11 @@
       </c>
       <c r="H110" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I110" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3575,11 +3591,11 @@
       </c>
       <c r="H111" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I111" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3603,11 +3619,11 @@
       </c>
       <c r="H112" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I112" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3631,11 +3647,11 @@
       </c>
       <c r="H113" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I113" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3659,11 +3675,11 @@
       </c>
       <c r="H114" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I114" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3687,11 +3703,11 @@
       </c>
       <c r="H115" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I115" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3715,11 +3731,11 @@
       </c>
       <c r="H116" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I116" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3743,11 +3759,11 @@
       </c>
       <c r="H117" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I117" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3771,11 +3787,11 @@
       </c>
       <c r="H118" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I118" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3799,11 +3815,11 @@
       </c>
       <c r="H119" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I119" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3827,11 +3843,11 @@
       </c>
       <c r="H120" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I120" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3855,11 +3871,11 @@
       </c>
       <c r="H121" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I121" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3883,11 +3899,11 @@
       </c>
       <c r="H122" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I122" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -3911,11 +3927,11 @@
       </c>
       <c r="H123" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I123" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3939,11 +3955,11 @@
       </c>
       <c r="H124" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I124" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -3967,11 +3983,11 @@
       </c>
       <c r="H125" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I125" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -3995,11 +4011,11 @@
       </c>
       <c r="H126" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I126" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4023,11 +4039,11 @@
       </c>
       <c r="H127" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I127" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4051,11 +4067,11 @@
       </c>
       <c r="H128" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I128" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4079,11 +4095,11 @@
       </c>
       <c r="H129" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I129" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4107,11 +4123,11 @@
       </c>
       <c r="H130" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I130" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4135,11 +4151,11 @@
       </c>
       <c r="H131" s="4">
         <f t="shared" ref="H131:I194" ca="1" si="2">NOW()</f>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4163,11 +4179,11 @@
       </c>
       <c r="H132" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I132" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4191,11 +4207,11 @@
       </c>
       <c r="H133" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I133" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4222,11 +4238,11 @@
       </c>
       <c r="H134" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I134" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4251,11 +4267,11 @@
       </c>
       <c r="H135" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I135" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -4279,11 +4295,11 @@
       </c>
       <c r="H136" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I136" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -4307,11 +4323,11 @@
       </c>
       <c r="H137" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I137" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4335,11 +4351,11 @@
       </c>
       <c r="H138" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I138" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4363,11 +4379,11 @@
       </c>
       <c r="H139" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I139" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4391,11 +4407,11 @@
       </c>
       <c r="H140" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I140" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -4419,11 +4435,11 @@
       </c>
       <c r="H141" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I141" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -4447,11 +4463,11 @@
       </c>
       <c r="H142" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I142" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -4475,11 +4491,11 @@
       </c>
       <c r="H143" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I143" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -4503,11 +4519,11 @@
       </c>
       <c r="H144" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I144" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -4531,11 +4547,11 @@
       </c>
       <c r="H145" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I145" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -4559,11 +4575,11 @@
       </c>
       <c r="H146" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I146" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -4587,11 +4603,11 @@
       </c>
       <c r="H147" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I147" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -4615,11 +4631,11 @@
       </c>
       <c r="H148" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I148" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -4643,11 +4659,11 @@
       </c>
       <c r="H149" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I149" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -4671,11 +4687,11 @@
       </c>
       <c r="H150" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I150" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -4699,11 +4715,11 @@
       </c>
       <c r="H151" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I151" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -4727,11 +4743,11 @@
       </c>
       <c r="H152" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I152" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -4755,11 +4771,11 @@
       </c>
       <c r="H153" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I153" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -4783,11 +4799,11 @@
       </c>
       <c r="H154" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I154" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -4811,11 +4827,11 @@
       </c>
       <c r="H155" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I155" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -4839,11 +4855,11 @@
       </c>
       <c r="H156" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I156" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -4867,11 +4883,11 @@
       </c>
       <c r="H157" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I157" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -4895,11 +4911,11 @@
       </c>
       <c r="H158" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I158" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -4923,11 +4939,11 @@
       </c>
       <c r="H159" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I159" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -4951,11 +4967,11 @@
       </c>
       <c r="H160" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I160" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -4979,11 +4995,11 @@
       </c>
       <c r="H161" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I161" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5007,11 +5023,11 @@
       </c>
       <c r="H162" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I162" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5035,11 +5051,11 @@
       </c>
       <c r="H163" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I163" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -5063,11 +5079,11 @@
       </c>
       <c r="H164" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I164" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -5091,11 +5107,11 @@
       </c>
       <c r="H165" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I165" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5119,11 +5135,11 @@
       </c>
       <c r="H166" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I166" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5147,11 +5163,11 @@
       </c>
       <c r="H167" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I167" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5175,11 +5191,11 @@
       </c>
       <c r="H168" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I168" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5203,11 +5219,11 @@
       </c>
       <c r="H169" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I169" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -5231,11 +5247,11 @@
       </c>
       <c r="H170" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I170" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5259,11 +5275,11 @@
       </c>
       <c r="H171" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I171" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -5287,11 +5303,11 @@
       </c>
       <c r="H172" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I172" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -5315,11 +5331,11 @@
       </c>
       <c r="H173" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I173" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -5343,11 +5359,11 @@
       </c>
       <c r="H174" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I174" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -5371,11 +5387,11 @@
       </c>
       <c r="H175" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I175" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -5399,11 +5415,11 @@
       </c>
       <c r="H176" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I176" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -5427,11 +5443,11 @@
       </c>
       <c r="H177" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I177" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -5455,11 +5471,11 @@
       </c>
       <c r="H178" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I178" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -5483,11 +5499,11 @@
       </c>
       <c r="H179" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I179" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -5511,11 +5527,11 @@
       </c>
       <c r="H180" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I180" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -5539,11 +5555,11 @@
       </c>
       <c r="H181" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I181" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -5567,11 +5583,11 @@
       </c>
       <c r="H182" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I182" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -5595,11 +5611,11 @@
       </c>
       <c r="H183" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I183" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -5623,11 +5639,11 @@
       </c>
       <c r="H184" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I184" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -5651,11 +5667,11 @@
       </c>
       <c r="H185" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I185" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -5679,11 +5695,11 @@
       </c>
       <c r="H186" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I186" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -5707,11 +5723,11 @@
       </c>
       <c r="H187" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I187" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -5735,11 +5751,11 @@
       </c>
       <c r="H188" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I188" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -5763,11 +5779,11 @@
       </c>
       <c r="H189" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I189" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -5791,11 +5807,11 @@
       </c>
       <c r="H190" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I190" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -5819,11 +5835,11 @@
       </c>
       <c r="H191" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I191" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -5847,11 +5863,11 @@
       </c>
       <c r="H192" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I192" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -5875,11 +5891,11 @@
       </c>
       <c r="H193" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I193" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -5903,11 +5919,11 @@
       </c>
       <c r="H194" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I194" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -5931,11 +5947,11 @@
       </c>
       <c r="H195" s="4">
         <f t="shared" ref="H195:I258" ca="1" si="3">NOW()</f>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I195" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -5959,11 +5975,11 @@
       </c>
       <c r="H196" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I196" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -5987,11 +6003,11 @@
       </c>
       <c r="H197" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I197" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6015,11 +6031,11 @@
       </c>
       <c r="H198" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I198" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6043,11 +6059,11 @@
       </c>
       <c r="H199" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I199" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -6071,11 +6087,11 @@
       </c>
       <c r="H200" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I200" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -6099,11 +6115,11 @@
       </c>
       <c r="H201" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I201" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -6127,11 +6143,11 @@
       </c>
       <c r="H202" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I202" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -6155,11 +6171,11 @@
       </c>
       <c r="H203" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I203" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -6183,11 +6199,11 @@
       </c>
       <c r="H204" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I204" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -6211,11 +6227,11 @@
       </c>
       <c r="H205" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I205" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -6239,11 +6255,11 @@
       </c>
       <c r="H206" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I206" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -6267,11 +6283,11 @@
       </c>
       <c r="H207" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I207" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -6295,11 +6311,11 @@
       </c>
       <c r="H208" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I208" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -6323,11 +6339,11 @@
       </c>
       <c r="H209" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I209" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -6351,11 +6367,11 @@
       </c>
       <c r="H210" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I210" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -6379,11 +6395,11 @@
       </c>
       <c r="H211" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I211" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -6407,11 +6423,11 @@
       </c>
       <c r="H212" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I212" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -6435,11 +6451,11 @@
       </c>
       <c r="H213" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I213" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -6463,11 +6479,11 @@
       </c>
       <c r="H214" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I214" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -6491,11 +6507,11 @@
       </c>
       <c r="H215" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I215" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -6519,11 +6535,11 @@
       </c>
       <c r="H216" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I216" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -6547,11 +6563,11 @@
       </c>
       <c r="H217" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I217" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -6575,11 +6591,11 @@
       </c>
       <c r="H218" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I218" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -6603,11 +6619,11 @@
       </c>
       <c r="H219" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I219" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -6632,11 +6648,11 @@
       </c>
       <c r="H220" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I220" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -6660,11 +6676,11 @@
       </c>
       <c r="H221" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I221" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -6688,11 +6704,11 @@
       </c>
       <c r="H222" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I222" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -6716,11 +6732,11 @@
       </c>
       <c r="H223" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I223" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -6744,11 +6760,11 @@
       </c>
       <c r="H224" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I224" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -6772,11 +6788,11 @@
       </c>
       <c r="H225" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I225" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -6800,11 +6816,11 @@
       </c>
       <c r="H226" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I226" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -6828,11 +6844,11 @@
       </c>
       <c r="H227" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I227" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -6856,11 +6872,11 @@
       </c>
       <c r="H228" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I228" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -6884,11 +6900,11 @@
       </c>
       <c r="H229" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I229" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -6912,11 +6928,11 @@
       </c>
       <c r="H230" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I230" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -6940,11 +6956,11 @@
       </c>
       <c r="H231" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I231" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -6968,11 +6984,11 @@
       </c>
       <c r="H232" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I232" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -6996,11 +7012,11 @@
       </c>
       <c r="H233" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I233" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -7024,11 +7040,11 @@
       </c>
       <c r="H234" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I234" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -7052,11 +7068,11 @@
       </c>
       <c r="H235" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I235" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -7080,11 +7096,11 @@
       </c>
       <c r="H236" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I236" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -7108,11 +7124,11 @@
       </c>
       <c r="H237" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I237" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -7136,11 +7152,11 @@
       </c>
       <c r="H238" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I238" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -7164,11 +7180,11 @@
       </c>
       <c r="H239" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I239" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -7192,11 +7208,11 @@
       </c>
       <c r="H240" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I240" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -7220,11 +7236,11 @@
       </c>
       <c r="H241" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I241" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -7248,11 +7264,11 @@
       </c>
       <c r="H242" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I242" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -7277,11 +7293,11 @@
       </c>
       <c r="H243" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I243" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -7305,11 +7321,11 @@
       </c>
       <c r="H244" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I244" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -7333,11 +7349,11 @@
       </c>
       <c r="H245" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I245" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -7361,11 +7377,11 @@
       </c>
       <c r="H246" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I246" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -7389,11 +7405,11 @@
       </c>
       <c r="H247" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I247" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -7417,11 +7433,11 @@
       </c>
       <c r="H248" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I248" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -7445,11 +7461,11 @@
       </c>
       <c r="H249" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I249" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -7473,11 +7489,11 @@
       </c>
       <c r="H250" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I250" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -7501,11 +7517,11 @@
       </c>
       <c r="H251" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I251" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -7529,11 +7545,11 @@
       </c>
       <c r="H252" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I252" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -7557,11 +7573,11 @@
       </c>
       <c r="H253" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I253" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -7585,11 +7601,11 @@
       </c>
       <c r="H254" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I254" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -7613,11 +7629,11 @@
       </c>
       <c r="H255" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I255" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -7641,11 +7657,11 @@
       </c>
       <c r="H256" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I256" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -7669,11 +7685,11 @@
       </c>
       <c r="H257" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I257" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -7697,11 +7713,11 @@
       </c>
       <c r="H258" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I258" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -7725,11 +7741,11 @@
       </c>
       <c r="H259" s="4">
         <f t="shared" ref="H259:I322" ca="1" si="4">NOW()</f>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I259" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -7753,11 +7769,11 @@
       </c>
       <c r="H260" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I260" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -7781,11 +7797,11 @@
       </c>
       <c r="H261" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I261" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -7809,11 +7825,11 @@
       </c>
       <c r="H262" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I262" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -7837,11 +7853,11 @@
       </c>
       <c r="H263" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I263" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -7865,11 +7881,11 @@
       </c>
       <c r="H264" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I264" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -7893,11 +7909,11 @@
       </c>
       <c r="H265" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I265" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -7921,11 +7937,11 @@
       </c>
       <c r="H266" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I266" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -7949,11 +7965,11 @@
       </c>
       <c r="H267" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I267" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -7977,11 +7993,11 @@
       </c>
       <c r="H268" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I268" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -8005,11 +8021,11 @@
       </c>
       <c r="H269" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I269" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -8033,11 +8049,11 @@
       </c>
       <c r="H270" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I270" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -8061,11 +8077,11 @@
       </c>
       <c r="H271" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I271" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -8089,11 +8105,11 @@
       </c>
       <c r="H272" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I272" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -8117,11 +8133,11 @@
       </c>
       <c r="H273" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I273" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -8145,11 +8161,11 @@
       </c>
       <c r="H274" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I274" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -8173,11 +8189,11 @@
       </c>
       <c r="H275" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I275" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -8201,11 +8217,11 @@
       </c>
       <c r="H276" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I276" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -8229,11 +8245,11 @@
       </c>
       <c r="H277" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I277" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -8257,11 +8273,11 @@
       </c>
       <c r="H278" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I278" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -8285,11 +8301,11 @@
       </c>
       <c r="H279" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I279" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -8313,11 +8329,11 @@
       </c>
       <c r="H280" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I280" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -8341,11 +8357,11 @@
       </c>
       <c r="H281" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I281" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -8369,11 +8385,11 @@
       </c>
       <c r="H282" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I282" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -8397,11 +8413,11 @@
       </c>
       <c r="H283" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I283" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -8425,11 +8441,11 @@
       </c>
       <c r="H284" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I284" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -8453,11 +8469,11 @@
       </c>
       <c r="H285" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I285" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -8481,11 +8497,11 @@
       </c>
       <c r="H286" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I286" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -8509,11 +8525,11 @@
       </c>
       <c r="H287" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I287" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -8537,11 +8553,11 @@
       </c>
       <c r="H288" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I288" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -8565,11 +8581,11 @@
       </c>
       <c r="H289" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I289" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -8593,11 +8609,11 @@
       </c>
       <c r="H290" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I290" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -8621,11 +8637,11 @@
       </c>
       <c r="H291" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I291" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -8649,11 +8665,11 @@
       </c>
       <c r="H292" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I292" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -8677,11 +8693,11 @@
       </c>
       <c r="H293" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I293" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -8705,11 +8721,11 @@
       </c>
       <c r="H294" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I294" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -8733,11 +8749,11 @@
       </c>
       <c r="H295" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I295" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -8761,11 +8777,11 @@
       </c>
       <c r="H296" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I296" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -8789,11 +8805,11 @@
       </c>
       <c r="H297" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I297" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -8817,11 +8833,11 @@
       </c>
       <c r="H298" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I298" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -8845,11 +8861,11 @@
       </c>
       <c r="H299" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I299" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -8873,11 +8889,11 @@
       </c>
       <c r="H300" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I300" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -8901,11 +8917,11 @@
       </c>
       <c r="H301" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I301" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -8929,11 +8945,11 @@
       </c>
       <c r="H302" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I302" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -8957,11 +8973,11 @@
       </c>
       <c r="H303" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I303" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -8985,11 +9001,11 @@
       </c>
       <c r="H304" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I304" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -9013,11 +9029,11 @@
       </c>
       <c r="H305" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I305" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -9041,11 +9057,11 @@
       </c>
       <c r="H306" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I306" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -9069,11 +9085,11 @@
       </c>
       <c r="H307" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I307" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -9097,11 +9113,11 @@
       </c>
       <c r="H308" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I308" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -9125,11 +9141,11 @@
       </c>
       <c r="H309" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I309" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -9153,11 +9169,11 @@
       </c>
       <c r="H310" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I310" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -9181,11 +9197,11 @@
       </c>
       <c r="H311" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I311" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -9209,11 +9225,11 @@
       </c>
       <c r="H312" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I312" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -9237,11 +9253,11 @@
       </c>
       <c r="H313" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I313" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -9265,11 +9281,11 @@
       </c>
       <c r="H314" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I314" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -9293,11 +9309,11 @@
       </c>
       <c r="H315" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I315" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -9321,11 +9337,11 @@
       </c>
       <c r="H316" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I316" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -9349,11 +9365,11 @@
       </c>
       <c r="H317" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I317" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -9377,11 +9393,11 @@
       </c>
       <c r="H318" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I318" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -9405,11 +9421,11 @@
       </c>
       <c r="H319" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I319" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -9433,11 +9449,11 @@
       </c>
       <c r="H320" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I320" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -9461,11 +9477,11 @@
       </c>
       <c r="H321" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I321" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -9489,11 +9505,11 @@
       </c>
       <c r="H322" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I322" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -9516,12 +9532,12 @@
         <v>1</v>
       </c>
       <c r="H323" s="4">
-        <f t="shared" ref="H323:I378" ca="1" si="5">NOW()</f>
-        <v>43042.72439398148</v>
+        <f t="shared" ref="H323:I379" ca="1" si="5">NOW()</f>
+        <v>43071.642200347225</v>
       </c>
       <c r="I323" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -9545,11 +9561,11 @@
       </c>
       <c r="H324" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I324" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -9573,11 +9589,11 @@
       </c>
       <c r="H325" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I325" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -9601,11 +9617,11 @@
       </c>
       <c r="H326" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I326" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -9629,11 +9645,11 @@
       </c>
       <c r="H327" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I327" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -9657,11 +9673,11 @@
       </c>
       <c r="H328" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I328" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -9685,11 +9701,11 @@
       </c>
       <c r="H329" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I329" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -9713,11 +9729,11 @@
       </c>
       <c r="H330" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I330" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -9741,11 +9757,11 @@
       </c>
       <c r="H331" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I331" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -9769,11 +9785,11 @@
       </c>
       <c r="H332" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I332" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -9797,11 +9813,11 @@
       </c>
       <c r="H333" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I333" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -9818,21 +9834,19 @@
         <v>0</v>
       </c>
       <c r="E334" s="2">
-        <v>43063</v>
-      </c>
-      <c r="F334" s="2">
-        <v>43063</v>
-      </c>
+        <v>43061</v>
+      </c>
+      <c r="F334" s="2"/>
       <c r="G334" s="5">
         <v>1</v>
       </c>
       <c r="H334" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I334" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -9856,11 +9870,11 @@
       </c>
       <c r="H335" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I335" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -9884,11 +9898,11 @@
       </c>
       <c r="H336" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I336" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -9912,11 +9926,11 @@
       </c>
       <c r="H337" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I337" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -9940,11 +9954,11 @@
       </c>
       <c r="H338" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I338" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -9968,11 +9982,11 @@
       </c>
       <c r="H339" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I339" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -9996,11 +10010,11 @@
       </c>
       <c r="H340" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I340" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -10024,11 +10038,11 @@
       </c>
       <c r="H341" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I341" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -10052,11 +10066,11 @@
       </c>
       <c r="H342" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I342" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -10080,11 +10094,11 @@
       </c>
       <c r="H343" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I343" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -10108,11 +10122,11 @@
       </c>
       <c r="H344" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I344" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -10136,11 +10150,11 @@
       </c>
       <c r="H345" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I345" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -10164,11 +10178,11 @@
       </c>
       <c r="H346" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I346" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -10192,11 +10206,11 @@
       </c>
       <c r="H347" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I347" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -10220,11 +10234,11 @@
       </c>
       <c r="H348" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I348" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -10248,11 +10262,11 @@
       </c>
       <c r="H349" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I349" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -10276,11 +10290,11 @@
       </c>
       <c r="H350" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I350" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -10304,11 +10318,11 @@
       </c>
       <c r="H351" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I351" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -10332,11 +10346,11 @@
       </c>
       <c r="H352" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I352" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -10360,11 +10374,11 @@
       </c>
       <c r="H353" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I353" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -10388,11 +10402,11 @@
       </c>
       <c r="H354" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I354" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -10416,11 +10430,11 @@
       </c>
       <c r="H355" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I355" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -10444,11 +10458,11 @@
       </c>
       <c r="H356" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I356" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -10465,21 +10479,19 @@
         <v>0</v>
       </c>
       <c r="E357" s="2">
-        <v>43063</v>
-      </c>
-      <c r="F357" s="2">
-        <v>43063</v>
-      </c>
+        <v>43061</v>
+      </c>
+      <c r="F357" s="2"/>
       <c r="G357" s="5">
         <v>1</v>
       </c>
       <c r="H357" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I357" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -10503,11 +10515,11 @@
       </c>
       <c r="H358" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I358" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -10531,11 +10543,11 @@
       </c>
       <c r="H359" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I359" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -10559,11 +10571,11 @@
       </c>
       <c r="H360" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I360" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -10587,11 +10599,11 @@
       </c>
       <c r="H361" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I361" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -10615,11 +10627,11 @@
       </c>
       <c r="H362" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I362" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -10643,11 +10655,11 @@
       </c>
       <c r="H363" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I363" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -10671,11 +10683,11 @@
       </c>
       <c r="H364" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I364" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -10699,11 +10711,11 @@
       </c>
       <c r="H365" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I365" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -10727,11 +10739,11 @@
       </c>
       <c r="H366" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I366" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -10755,11 +10767,11 @@
       </c>
       <c r="H367" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I367" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
@@ -10783,11 +10795,11 @@
       </c>
       <c r="H368" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I368" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
@@ -10811,11 +10823,11 @@
       </c>
       <c r="H369" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I369" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
@@ -10839,11 +10851,11 @@
       </c>
       <c r="H370" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I370" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -10867,11 +10879,11 @@
       </c>
       <c r="H371" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I371" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -10895,11 +10907,11 @@
       </c>
       <c r="H372" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I372" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -10923,11 +10935,11 @@
       </c>
       <c r="H373" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I373" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
@@ -10951,11 +10963,11 @@
       </c>
       <c r="H374" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I374" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
@@ -10979,11 +10991,11 @@
       </c>
       <c r="H375" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I375" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -11007,11 +11019,11 @@
       </c>
       <c r="H376" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I376" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
@@ -11035,11 +11047,11 @@
       </c>
       <c r="H377" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I377" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -11063,11 +11075,1127 @@
       </c>
       <c r="H378" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
       </c>
       <c r="I378" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>43042.72439398148</v>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>426</v>
+      </c>
+      <c r="B379">
+        <v>60</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379" t="s">
+        <v>12</v>
+      </c>
+      <c r="E379" s="2">
+        <v>40588</v>
+      </c>
+      <c r="F379" s="2">
+        <v>40593</v>
+      </c>
+      <c r="G379" s="5">
+        <v>1</v>
+      </c>
+      <c r="H379" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I379" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>427</v>
+      </c>
+      <c r="B380">
+        <v>60</v>
+      </c>
+      <c r="C380">
+        <v>2</v>
+      </c>
+      <c r="D380" t="s">
+        <v>13</v>
+      </c>
+      <c r="E380" s="2">
+        <v>40644</v>
+      </c>
+      <c r="F380" s="2">
+        <v>40663</v>
+      </c>
+      <c r="G380" s="5">
+        <v>1</v>
+      </c>
+      <c r="H380" s="4">
+        <f t="shared" ref="H380:I414" ca="1" si="6">NOW()</f>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I380" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>428</v>
+      </c>
+      <c r="B381">
+        <v>60</v>
+      </c>
+      <c r="C381">
+        <v>3</v>
+      </c>
+      <c r="D381" t="s">
+        <v>14</v>
+      </c>
+      <c r="E381" s="2">
+        <v>40805</v>
+      </c>
+      <c r="F381" s="2">
+        <v>40810</v>
+      </c>
+      <c r="G381" s="5">
+        <v>1</v>
+      </c>
+      <c r="H381" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I381" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>429</v>
+      </c>
+      <c r="B382">
+        <v>60</v>
+      </c>
+      <c r="C382">
+        <v>4</v>
+      </c>
+      <c r="D382" t="s">
+        <v>11</v>
+      </c>
+      <c r="E382" s="2">
+        <v>40872</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G382" s="5">
+        <v>1</v>
+      </c>
+      <c r="H382" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I382" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>430</v>
+      </c>
+      <c r="B383">
+        <v>62</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383" t="s">
+        <v>13</v>
+      </c>
+      <c r="E383" s="2">
+        <v>40973</v>
+      </c>
+      <c r="F383" s="2">
+        <v>40978</v>
+      </c>
+      <c r="G383" s="5">
+        <v>1</v>
+      </c>
+      <c r="H383" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I383" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>431</v>
+      </c>
+      <c r="B384">
+        <v>62</v>
+      </c>
+      <c r="C384">
+        <v>2</v>
+      </c>
+      <c r="D384" t="s">
+        <v>14</v>
+      </c>
+      <c r="E384" s="2">
+        <v>41064</v>
+      </c>
+      <c r="F384" s="2">
+        <v>41069</v>
+      </c>
+      <c r="G384" s="5">
+        <v>1</v>
+      </c>
+      <c r="H384" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I384" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>432</v>
+      </c>
+      <c r="B385">
+        <v>62</v>
+      </c>
+      <c r="C385">
+        <v>3</v>
+      </c>
+      <c r="D385" t="s">
+        <v>11</v>
+      </c>
+      <c r="E385" s="2">
+        <v>41232</v>
+      </c>
+      <c r="F385" s="2">
+        <v>41237</v>
+      </c>
+      <c r="G385" s="5">
+        <v>1</v>
+      </c>
+      <c r="H385" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I385" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>433</v>
+      </c>
+      <c r="B386">
+        <v>61</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386" t="s">
+        <v>14</v>
+      </c>
+      <c r="E386" s="2">
+        <v>41225</v>
+      </c>
+      <c r="F386" s="2">
+        <v>41234</v>
+      </c>
+      <c r="G386" s="5">
+        <v>1</v>
+      </c>
+      <c r="H386" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I386" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>434</v>
+      </c>
+      <c r="B387">
+        <v>61</v>
+      </c>
+      <c r="C387">
+        <v>2</v>
+      </c>
+      <c r="D387" t="s">
+        <v>11</v>
+      </c>
+      <c r="E387" s="2">
+        <v>41236</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G387" s="5">
+        <v>1</v>
+      </c>
+      <c r="H387" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I387" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>435</v>
+      </c>
+      <c r="B388">
+        <v>63</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388" t="s">
+        <v>16</v>
+      </c>
+      <c r="E388" s="2">
+        <v>41309</v>
+      </c>
+      <c r="F388" s="2">
+        <v>41321</v>
+      </c>
+      <c r="G388" s="5">
+        <v>1</v>
+      </c>
+      <c r="H388" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I388" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>436</v>
+      </c>
+      <c r="B389">
+        <v>63</v>
+      </c>
+      <c r="C389">
+        <v>2</v>
+      </c>
+      <c r="D389" t="s">
+        <v>12</v>
+      </c>
+      <c r="E389" s="2">
+        <v>41393</v>
+      </c>
+      <c r="F389" s="2">
+        <v>41405</v>
+      </c>
+      <c r="G389" s="5">
+        <v>1</v>
+      </c>
+      <c r="H389" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I389" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>437</v>
+      </c>
+      <c r="B390">
+        <v>63</v>
+      </c>
+      <c r="C390">
+        <v>3</v>
+      </c>
+      <c r="D390" t="s">
+        <v>13</v>
+      </c>
+      <c r="E390" s="2">
+        <v>41415</v>
+      </c>
+      <c r="F390" s="2">
+        <v>41426</v>
+      </c>
+      <c r="G390" s="5">
+        <v>1</v>
+      </c>
+      <c r="H390" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I390" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>438</v>
+      </c>
+      <c r="B391">
+        <v>63</v>
+      </c>
+      <c r="C391">
+        <v>4</v>
+      </c>
+      <c r="D391" t="s">
+        <v>14</v>
+      </c>
+      <c r="E391" s="2">
+        <v>41540</v>
+      </c>
+      <c r="F391" s="2">
+        <v>41552</v>
+      </c>
+      <c r="G391" s="5">
+        <v>1</v>
+      </c>
+      <c r="H391" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I391" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>439</v>
+      </c>
+      <c r="B392">
+        <v>63</v>
+      </c>
+      <c r="C392">
+        <v>5</v>
+      </c>
+      <c r="D392" t="s">
+        <v>11</v>
+      </c>
+      <c r="E392" s="2">
+        <v>41600</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G392" s="5">
+        <v>1</v>
+      </c>
+      <c r="H392" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I392" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>440</v>
+      </c>
+      <c r="B393">
+        <v>59</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393" t="s">
+        <v>14</v>
+      </c>
+      <c r="E393" s="2">
+        <v>40497</v>
+      </c>
+      <c r="F393" s="2">
+        <v>40506</v>
+      </c>
+      <c r="G393" s="5">
+        <v>1</v>
+      </c>
+      <c r="H393" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I393" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>441</v>
+      </c>
+      <c r="B394">
+        <v>59</v>
+      </c>
+      <c r="C394">
+        <v>2</v>
+      </c>
+      <c r="D394" t="s">
+        <v>11</v>
+      </c>
+      <c r="E394" s="2">
+        <v>40508</v>
+      </c>
+      <c r="F394" s="2">
+        <v>40508</v>
+      </c>
+      <c r="G394" s="5">
+        <v>1</v>
+      </c>
+      <c r="H394" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I394" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>442</v>
+      </c>
+      <c r="B395">
+        <v>64</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395" t="s">
+        <v>16</v>
+      </c>
+      <c r="E395" s="2">
+        <v>41687</v>
+      </c>
+      <c r="F395" s="2">
+        <v>41699</v>
+      </c>
+      <c r="G395" s="5">
+        <v>1</v>
+      </c>
+      <c r="H395" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I395" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>443</v>
+      </c>
+      <c r="B396">
+        <v>64</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+      <c r="D396" t="s">
+        <v>12</v>
+      </c>
+      <c r="E396" s="2">
+        <v>41743</v>
+      </c>
+      <c r="F396" s="2">
+        <v>41762</v>
+      </c>
+      <c r="G396" s="5">
+        <v>1</v>
+      </c>
+      <c r="H396" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I396" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>444</v>
+      </c>
+      <c r="B397">
+        <v>64</v>
+      </c>
+      <c r="C397">
+        <v>3</v>
+      </c>
+      <c r="D397" t="s">
+        <v>13</v>
+      </c>
+      <c r="E397" s="2">
+        <v>41820</v>
+      </c>
+      <c r="F397" s="2">
+        <v>41874</v>
+      </c>
+      <c r="G397" s="5">
+        <v>1</v>
+      </c>
+      <c r="H397" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I397" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>445</v>
+      </c>
+      <c r="B398">
+        <v>64</v>
+      </c>
+      <c r="C398">
+        <v>4</v>
+      </c>
+      <c r="D398" t="s">
+        <v>14</v>
+      </c>
+      <c r="E398" s="2">
+        <v>41918</v>
+      </c>
+      <c r="F398" s="2">
+        <v>41930</v>
+      </c>
+      <c r="G398" s="5">
+        <v>1</v>
+      </c>
+      <c r="H398" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I398" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>446</v>
+      </c>
+      <c r="B399">
+        <v>64</v>
+      </c>
+      <c r="C399">
+        <v>5</v>
+      </c>
+      <c r="D399" t="s">
+        <v>11</v>
+      </c>
+      <c r="E399" s="2">
+        <v>41971</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G399" s="5">
+        <v>1</v>
+      </c>
+      <c r="H399" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I399" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>447</v>
+      </c>
+      <c r="B400">
+        <v>65</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400" t="s">
+        <v>16</v>
+      </c>
+      <c r="E400" s="2">
+        <v>42051</v>
+      </c>
+      <c r="F400" s="2">
+        <v>42063</v>
+      </c>
+      <c r="G400" s="5">
+        <v>1</v>
+      </c>
+      <c r="H400" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I400" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>448</v>
+      </c>
+      <c r="B401">
+        <v>65</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+      <c r="D401" t="s">
+        <v>12</v>
+      </c>
+      <c r="E401" s="2">
+        <v>42135</v>
+      </c>
+      <c r="F401" s="2">
+        <v>42140</v>
+      </c>
+      <c r="G401" s="5">
+        <v>1</v>
+      </c>
+      <c r="H401" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I401" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>449</v>
+      </c>
+      <c r="B402">
+        <v>65</v>
+      </c>
+      <c r="C402">
+        <v>3</v>
+      </c>
+      <c r="D402" t="s">
+        <v>13</v>
+      </c>
+      <c r="E402" s="2">
+        <v>42247</v>
+      </c>
+      <c r="F402" s="2">
+        <v>42252</v>
+      </c>
+      <c r="G402" s="5">
+        <v>1</v>
+      </c>
+      <c r="H402" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I402" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>450</v>
+      </c>
+      <c r="B403">
+        <v>65</v>
+      </c>
+      <c r="C403">
+        <v>4</v>
+      </c>
+      <c r="D403" t="s">
+        <v>14</v>
+      </c>
+      <c r="E403" s="2">
+        <v>42303</v>
+      </c>
+      <c r="F403" s="2">
+        <v>42308</v>
+      </c>
+      <c r="G403" s="5">
+        <v>1</v>
+      </c>
+      <c r="H403" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I403" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>451</v>
+      </c>
+      <c r="B404">
+        <v>65</v>
+      </c>
+      <c r="C404">
+        <v>5</v>
+      </c>
+      <c r="D404" t="s">
+        <v>11</v>
+      </c>
+      <c r="E404" s="2">
+        <v>42333</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G404" s="5">
+        <v>1</v>
+      </c>
+      <c r="H404" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I404" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>452</v>
+      </c>
+      <c r="B405">
+        <v>66</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405" t="s">
+        <v>16</v>
+      </c>
+      <c r="E405" s="2">
+        <v>42394</v>
+      </c>
+      <c r="F405" s="2">
+        <v>42399</v>
+      </c>
+      <c r="G405" s="5">
+        <v>1</v>
+      </c>
+      <c r="H405" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I405" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>453</v>
+      </c>
+      <c r="B406">
+        <v>66</v>
+      </c>
+      <c r="C406">
+        <v>2</v>
+      </c>
+      <c r="D406" t="s">
+        <v>12</v>
+      </c>
+      <c r="E406" s="2">
+        <v>42450</v>
+      </c>
+      <c r="F406" s="2">
+        <v>42462</v>
+      </c>
+      <c r="G406" s="5">
+        <v>1</v>
+      </c>
+      <c r="H406" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I406" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>454</v>
+      </c>
+      <c r="B407">
+        <v>66</v>
+      </c>
+      <c r="C407">
+        <v>3</v>
+      </c>
+      <c r="D407" t="s">
+        <v>13</v>
+      </c>
+      <c r="E407" s="2">
+        <v>42492</v>
+      </c>
+      <c r="F407" s="2">
+        <v>42665</v>
+      </c>
+      <c r="G407" s="5">
+        <v>1</v>
+      </c>
+      <c r="H407" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I407" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>455</v>
+      </c>
+      <c r="B408">
+        <v>66</v>
+      </c>
+      <c r="C408">
+        <v>4</v>
+      </c>
+      <c r="D408" t="s">
+        <v>14</v>
+      </c>
+      <c r="E408" s="2">
+        <v>42674</v>
+      </c>
+      <c r="F408" s="2">
+        <v>42679</v>
+      </c>
+      <c r="G408" s="5">
+        <v>1</v>
+      </c>
+      <c r="H408" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I408" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>456</v>
+      </c>
+      <c r="B409">
+        <v>66</v>
+      </c>
+      <c r="C409">
+        <v>5</v>
+      </c>
+      <c r="D409" t="s">
+        <v>11</v>
+      </c>
+      <c r="E409" s="2">
+        <v>42699</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G409" s="5">
+        <v>1</v>
+      </c>
+      <c r="H409" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I409" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>457</v>
+      </c>
+      <c r="B410">
+        <v>67</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410" t="s">
+        <v>16</v>
+      </c>
+      <c r="E410" s="2">
+        <v>42786</v>
+      </c>
+      <c r="F410" s="2">
+        <v>42798</v>
+      </c>
+      <c r="G410" s="5">
+        <v>1</v>
+      </c>
+      <c r="H410" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I410" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>458</v>
+      </c>
+      <c r="B411">
+        <v>67</v>
+      </c>
+      <c r="C411">
+        <v>2</v>
+      </c>
+      <c r="D411" t="s">
+        <v>12</v>
+      </c>
+      <c r="E411" s="2">
+        <v>42849</v>
+      </c>
+      <c r="F411" s="2">
+        <v>42868</v>
+      </c>
+      <c r="G411" s="5">
+        <v>1</v>
+      </c>
+      <c r="H411" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I411" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>459</v>
+      </c>
+      <c r="B412">
+        <v>67</v>
+      </c>
+      <c r="C412">
+        <v>3</v>
+      </c>
+      <c r="D412" t="s">
+        <v>13</v>
+      </c>
+      <c r="E412" s="2">
+        <v>42877</v>
+      </c>
+      <c r="F412" s="2">
+        <v>42980</v>
+      </c>
+      <c r="G412" s="5">
+        <v>1</v>
+      </c>
+      <c r="H412" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I412" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>460</v>
+      </c>
+      <c r="B413">
+        <v>67</v>
+      </c>
+      <c r="C413">
+        <v>4</v>
+      </c>
+      <c r="D413" t="s">
+        <v>14</v>
+      </c>
+      <c r="E413" s="2">
+        <v>43010</v>
+      </c>
+      <c r="F413" s="2">
+        <v>43043</v>
+      </c>
+      <c r="G413" s="5">
+        <v>1</v>
+      </c>
+      <c r="H413" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I413" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>461</v>
+      </c>
+      <c r="B414">
+        <v>67</v>
+      </c>
+      <c r="C414">
+        <v>5</v>
+      </c>
+      <c r="D414" t="s">
+        <v>11</v>
+      </c>
+      <c r="E414" s="2">
+        <v>43063</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G414" s="5">
+        <v>1</v>
+      </c>
+      <c r="H414" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
+      </c>
+      <c r="I414" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>43071.642200347225</v>
       </c>
     </row>
   </sheetData>
